--- a/design/appDataArraysBuilder v2.1 cacheStore.xlsx
+++ b/design/appDataArraysBuilder v2.1 cacheStore.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matttownsend/Documents/GitHub/mwt-go-dev/design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A23ECFE-86AE-5946-AD56-B4B89B9E2D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF6485B-22AE-CC4E-AE39-820E4C19EF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8300" yWindow="2980" windowWidth="23160" windowHeight="16660" xr2:uid="{8265F428-BA81-814D-9171-A3F66298AE69}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>returnRecord.</t>
   </si>
@@ -120,58 +120,22 @@
     <t>matt.townsend@eurobase.com</t>
   </si>
   <si>
-    <t>apptoken</t>
-  </si>
-  <si>
-    <t>createdate</t>
-  </si>
-  <si>
-    <t>createtime</t>
-  </si>
-  <si>
-    <t>uniqueid</t>
-  </si>
-  <si>
-    <t>sessiontoken</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>userip</t>
-  </si>
-  <si>
-    <t>userhost</t>
-  </si>
-  <si>
-    <t>appip</t>
-  </si>
-  <si>
-    <t>apphost</t>
-  </si>
-  <si>
-    <t>issued</t>
-  </si>
-  <si>
     <t>expiry</t>
   </si>
   <si>
-    <t>expiryraw</t>
+    <t>SELECT SCAN</t>
   </si>
   <si>
-    <t>role</t>
+    <t>object</t>
   </si>
   <si>
-    <t>brand</t>
+    <t>field</t>
   </si>
   <si>
-    <t>Session</t>
+    <t>value</t>
   </si>
   <si>
-    <t>SELECT SCAN</t>
+    <t>Cache</t>
   </si>
 </sst>
 </file>
@@ -610,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4CE648-3973-0F42-A3A6-4E494BE264E6}">
   <dimension ref="A1:AH76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -661,7 +625,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1"/>
       <c r="H2" t="s">
@@ -689,52 +653,52 @@
     <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="str">
         <f>B2</f>
-        <v>Session</v>
+        <v>Cache</v>
       </c>
       <c r="C4" s="2"/>
       <c r="E4" s="2" t="str">
         <f>$B$1&amp;B6&amp;".go"</f>
-        <v>appSessionStore.go</v>
+        <v>appCacheStore.go</v>
       </c>
       <c r="H4" s="2" t="str">
         <f>H2&amp;"."&amp;E1&amp;B4&amp;B3</f>
-        <v>dbo.appSessionStore</v>
+        <v>dbo.appCacheStore</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="J5" t="str">
         <f>$E$1&amp;B6</f>
-        <v>appSessionStore</v>
+        <v>appCacheStore</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="str">
         <f>B4&amp;B3</f>
-        <v>SessionStore</v>
+        <v>CacheStore</v>
       </c>
       <c r="C6" s="1"/>
       <c r="E6" s="2" t="str">
         <f>$B$1&amp;B6&amp;"Page"</f>
-        <v>appSessionStorePage</v>
+        <v>appCacheStorePage</v>
       </c>
       <c r="F6" s="2" t="str">
         <f>$B$1&amp;B6&amp;"Item"</f>
-        <v>appSessionStoreItem</v>
+        <v>appCacheStoreItem</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H6" t="str">
         <f>"View"&amp;B6&amp;"Handler"</f>
-        <v>ViewSessionStoreHandler</v>
+        <v>ViewCacheStoreHandler</v>
       </c>
       <c r="I6" s="2" t="str">
         <f>"new"&amp;$D$1&amp;B6&amp;"Handler"</f>
-        <v>newAppSessionStoreHandler</v>
+        <v>newAppCacheStoreHandler</v>
       </c>
       <c r="M6" s="2" t="str">
         <f>"get"&amp;D$1&amp;B6&amp;"List"</f>
-        <v>getAppSessionStoreList</v>
+        <v>getAppCacheStoreList</v>
       </c>
       <c r="AH6" t="s">
         <v>2</v>
@@ -742,863 +706,839 @@
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2" t="str">
         <f t="shared" ref="C8:C18" si="0">IF(LEFT(B8)="_",SUBSTITUTE(PROPER(B8),"_","SYS"),PROPER(B8))</f>
-        <v>Apptoken</v>
+        <v>Id</v>
       </c>
       <c r="E8" t="str">
         <f>IF(B8="","",C8&amp;"    string")</f>
-        <v>Apptoken    string</v>
+        <v>Id    string</v>
       </c>
       <c r="F8" t="str">
         <f>E8</f>
-        <v>Apptoken    string</v>
+        <v>Id    string</v>
       </c>
       <c r="H8" t="str">
         <f>IF(B8="","",C8&amp;":    "&amp;$G$6&amp;C8&amp;",")</f>
-        <v>Apptoken:    returnRecord.Apptoken,</v>
+        <v>Id:    returnRecord.Id,</v>
       </c>
       <c r="I8" t="str">
         <f>IF(B8="","",C8&amp;":    """""&amp;",")</f>
-        <v>Apptoken:    "",</v>
+        <v>Id:    "",</v>
       </c>
       <c r="M8" t="str">
         <f>IF(B8="","",$J$5&amp;"."&amp;C8&amp;" = sql"&amp;$B$4&amp;$B$3&amp;C8&amp;".String")</f>
-        <v>appSessionStore.Apptoken = sqlSessionStoreApptoken.String</v>
+        <v>appCacheStore.Id = sqlCacheStoreId.String</v>
       </c>
       <c r="W8" t="str">
         <f>IF(B8="","","s."&amp;C8&amp;" = r.FormValue("""&amp;C8&amp;""")")</f>
-        <v>s.Apptoken = r.FormValue("Apptoken")</v>
+        <v>s.Id = r.FormValue("Id")</v>
       </c>
       <c r="AE8" t="str">
         <f>"."&amp;C8</f>
-        <v>.Apptoken</v>
+        <v>.Id</v>
       </c>
       <c r="AH8" t="str">
         <f>$J$5&amp;"."&amp;C8&amp;" = sql"&amp;C8&amp;".String"</f>
-        <v>appSessionStore.Apptoken = sqlApptoken.String</v>
+        <v>appCacheStore.Id = sqlId.String</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Createdate</v>
+        <v>Object</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" ref="E9:E72" si="1">IF(B9="","",C9&amp;"    string")</f>
-        <v>Createdate    string</v>
+        <v>Object    string</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" ref="F9:F41" si="2">E9</f>
-        <v>Createdate    string</v>
+        <v>Object    string</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" ref="H9:H72" si="3">IF(B9="","",C9&amp;":    "&amp;$G$6&amp;C9&amp;",")</f>
-        <v>Createdate:    returnRecord.Createdate,</v>
+        <v>Object:    returnRecord.Object,</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" ref="I9:I72" si="4">IF(B9="","",C9&amp;":    """""&amp;",")</f>
-        <v>Createdate:    "",</v>
+        <v>Object:    "",</v>
       </c>
       <c r="M9" t="str">
         <f t="shared" ref="M9:M72" si="5">IF(B9="","",$J$5&amp;"."&amp;C9&amp;" = sql"&amp;$B$4&amp;$B$3&amp;C9&amp;".String")</f>
-        <v>appSessionStore.Createdate = sqlSessionStoreCreatedate.String</v>
+        <v>appCacheStore.Object = sqlCacheStoreObject.String</v>
       </c>
       <c r="W9" t="str">
         <f t="shared" ref="W9:W72" si="6">IF(B9="","","s."&amp;C9&amp;" = r.FormValue("""&amp;C9&amp;""")")</f>
-        <v>s.Createdate = r.FormValue("Createdate")</v>
+        <v>s.Object = r.FormValue("Object")</v>
       </c>
       <c r="AE9" t="str">
         <f t="shared" ref="AE9:AE72" si="7">"."&amp;C9</f>
-        <v>.Createdate</v>
+        <v>.Object</v>
       </c>
       <c r="AH9" t="str">
         <f t="shared" ref="AH9:AH72" si="8">$J$5&amp;"."&amp;C9&amp;" = sql"&amp;C9&amp;".String"</f>
-        <v>appSessionStore.Createdate = sqlCreatedate.String</v>
+        <v>appCacheStore.Object = sqlObject.String</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Createtime</v>
+        <v>Field</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="1"/>
-        <v>Createtime    string</v>
+        <v>Field    string</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="2"/>
-        <v>Createtime    string</v>
+        <v>Field    string</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="3"/>
-        <v>Createtime:    returnRecord.Createtime,</v>
+        <v>Field:    returnRecord.Field,</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="4"/>
-        <v>Createtime:    "",</v>
+        <v>Field:    "",</v>
       </c>
       <c r="M10" t="str">
         <f t="shared" si="5"/>
-        <v>appSessionStore.Createtime = sqlSessionStoreCreatetime.String</v>
+        <v>appCacheStore.Field = sqlCacheStoreField.String</v>
       </c>
       <c r="W10" t="str">
         <f t="shared" si="6"/>
-        <v>s.Createtime = r.FormValue("Createtime")</v>
+        <v>s.Field = r.FormValue("Field")</v>
       </c>
       <c r="AE10" t="str">
         <f t="shared" si="7"/>
-        <v>.Createtime</v>
+        <v>.Field</v>
       </c>
       <c r="AH10" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore.Createtime = sqlCreatetime.String</v>
+        <v>appCacheStore.Field = sqlField.String</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Uniqueid</v>
+        <v>Value</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="1"/>
-        <v>Uniqueid    string</v>
+        <v>Value    string</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="2"/>
-        <v>Uniqueid    string</v>
+        <v>Value    string</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="3"/>
-        <v>Uniqueid:    returnRecord.Uniqueid,</v>
+        <v>Value:    returnRecord.Value,</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="4"/>
-        <v>Uniqueid:    "",</v>
+        <v>Value:    "",</v>
       </c>
       <c r="M11" t="str">
         <f t="shared" si="5"/>
-        <v>appSessionStore.Uniqueid = sqlSessionStoreUniqueid.String</v>
+        <v>appCacheStore.Value = sqlCacheStoreValue.String</v>
       </c>
       <c r="W11" t="str">
         <f t="shared" si="6"/>
-        <v>s.Uniqueid = r.FormValue("Uniqueid")</v>
+        <v>s.Value = r.FormValue("Value")</v>
       </c>
       <c r="AE11" t="str">
         <f t="shared" si="7"/>
-        <v>.Uniqueid</v>
+        <v>.Value</v>
       </c>
       <c r="AH11" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore.Uniqueid = sqlUniqueid.String</v>
+        <v>appCacheStore.Value = sqlValue.String</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Sessiontoken</v>
+        <v>Expiry</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="1"/>
-        <v>Sessiontoken    string</v>
+        <v>Expiry    string</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="2"/>
-        <v>Sessiontoken    string</v>
+        <v>Expiry    string</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="3"/>
-        <v>Sessiontoken:    returnRecord.Sessiontoken,</v>
+        <v>Expiry:    returnRecord.Expiry,</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="4"/>
-        <v>Sessiontoken:    "",</v>
+        <v>Expiry:    "",</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" si="5"/>
-        <v>appSessionStore.Sessiontoken = sqlSessionStoreSessiontoken.String</v>
+        <v>appCacheStore.Expiry = sqlCacheStoreExpiry.String</v>
       </c>
       <c r="W12" t="str">
         <f t="shared" si="6"/>
-        <v>s.Sessiontoken = r.FormValue("Sessiontoken")</v>
+        <v>s.Expiry = r.FormValue("Expiry")</v>
       </c>
       <c r="AE12" t="str">
         <f t="shared" si="7"/>
-        <v>.Sessiontoken</v>
+        <v>.Expiry</v>
       </c>
       <c r="AH12" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore.Sessiontoken = sqlSessiontoken.String</v>
+        <v>appCacheStore.Expiry = sqlExpiry.String</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Username</v>
+        <v>SYSCreated</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="1"/>
-        <v>Username    string</v>
+        <v>SYSCreated    string</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="2"/>
-        <v>Username    string</v>
+        <v>SYSCreated    string</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="3"/>
-        <v>Username:    returnRecord.Username,</v>
+        <v>SYSCreated:    returnRecord.SYSCreated,</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="4"/>
-        <v>Username:    "",</v>
+        <v>SYSCreated:    "",</v>
       </c>
       <c r="M13" t="str">
         <f t="shared" si="5"/>
-        <v>appSessionStore.Username = sqlSessionStoreUsername.String</v>
+        <v>appCacheStore.SYSCreated = sqlCacheStoreSYSCreated.String</v>
       </c>
       <c r="W13" t="str">
         <f t="shared" si="6"/>
-        <v>s.Username = r.FormValue("Username")</v>
+        <v>s.SYSCreated = r.FormValue("SYSCreated")</v>
       </c>
       <c r="AE13" t="str">
         <f t="shared" si="7"/>
-        <v>.Username</v>
+        <v>.SYSCreated</v>
       </c>
       <c r="AH13" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore.Username = sqlUsername.String</v>
+        <v>appCacheStore.SYSCreated = sqlSYSCreated.String</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Password</v>
+        <v>SYSWho</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="1"/>
-        <v>Password    string</v>
+        <v>SYSWho    string</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="2"/>
-        <v>Password    string</v>
+        <v>SYSWho    string</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="3"/>
-        <v>Password:    returnRecord.Password,</v>
+        <v>SYSWho:    returnRecord.SYSWho,</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="4"/>
-        <v>Password:    "",</v>
+        <v>SYSWho:    "",</v>
       </c>
       <c r="M14" t="str">
         <f t="shared" si="5"/>
-        <v>appSessionStore.Password = sqlSessionStorePassword.String</v>
+        <v>appCacheStore.SYSWho = sqlCacheStoreSYSWho.String</v>
       </c>
       <c r="W14" t="str">
         <f t="shared" si="6"/>
-        <v>s.Password = r.FormValue("Password")</v>
+        <v>s.SYSWho = r.FormValue("SYSWho")</v>
       </c>
       <c r="AE14" t="str">
         <f t="shared" si="7"/>
-        <v>.Password</v>
+        <v>.SYSWho</v>
       </c>
       <c r="AH14" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore.Password = sqlPassword.String</v>
+        <v>appCacheStore.SYSWho = sqlSYSWho.String</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Userip</v>
+        <v>SYSHost</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="1"/>
-        <v>Userip    string</v>
+        <v>SYSHost    string</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="2"/>
-        <v>Userip    string</v>
+        <v>SYSHost    string</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="3"/>
-        <v>Userip:    returnRecord.Userip,</v>
+        <v>SYSHost:    returnRecord.SYSHost,</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="4"/>
-        <v>Userip:    "",</v>
+        <v>SYSHost:    "",</v>
       </c>
       <c r="M15" t="str">
         <f t="shared" si="5"/>
-        <v>appSessionStore.Userip = sqlSessionStoreUserip.String</v>
+        <v>appCacheStore.SYSHost = sqlCacheStoreSYSHost.String</v>
       </c>
       <c r="W15" t="str">
         <f t="shared" si="6"/>
-        <v>s.Userip = r.FormValue("Userip")</v>
+        <v>s.SYSHost = r.FormValue("SYSHost")</v>
       </c>
       <c r="AE15" t="str">
         <f t="shared" si="7"/>
-        <v>.Userip</v>
+        <v>.SYSHost</v>
       </c>
       <c r="AH15" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore.Userip = sqlUserip.String</v>
+        <v>appCacheStore.SYSHost = sqlSYSHost.String</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Userhost</v>
+        <v>SYSUpdated</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="1"/>
-        <v>Userhost    string</v>
+        <v>SYSUpdated    string</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="2"/>
-        <v>Userhost    string</v>
+        <v>SYSUpdated    string</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="3"/>
-        <v>Userhost:    returnRecord.Userhost,</v>
+        <v>SYSUpdated:    returnRecord.SYSUpdated,</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="4"/>
-        <v>Userhost:    "",</v>
+        <v>SYSUpdated:    "",</v>
       </c>
       <c r="M16" t="str">
         <f t="shared" si="5"/>
-        <v>appSessionStore.Userhost = sqlSessionStoreUserhost.String</v>
+        <v>appCacheStore.SYSUpdated = sqlCacheStoreSYSUpdated.String</v>
       </c>
       <c r="W16" t="str">
         <f t="shared" si="6"/>
-        <v>s.Userhost = r.FormValue("Userhost")</v>
+        <v>s.SYSUpdated = r.FormValue("SYSUpdated")</v>
       </c>
       <c r="AE16" t="str">
         <f t="shared" si="7"/>
-        <v>.Userhost</v>
+        <v>.SYSUpdated</v>
       </c>
       <c r="AH16" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore.Userhost = sqlUserhost.String</v>
+        <v>appCacheStore.SYSUpdated = sqlSYSUpdated.String</v>
       </c>
     </row>
     <row r="17" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="B17" s="1"/>
       <c r="C17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Appip</v>
+        <v/>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="1"/>
-        <v>Appip    string</v>
+        <v/>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="2"/>
-        <v>Appip    string</v>
+        <v/>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="3"/>
-        <v>Appip:    returnRecord.Appip,</v>
+        <v/>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="4"/>
-        <v>Appip:    "",</v>
+        <v/>
       </c>
       <c r="M17" t="str">
         <f t="shared" si="5"/>
-        <v>appSessionStore.Appip = sqlSessionStoreAppip.String</v>
+        <v/>
       </c>
       <c r="W17" t="str">
         <f t="shared" si="6"/>
-        <v>s.Appip = r.FormValue("Appip")</v>
+        <v/>
       </c>
       <c r="AE17" t="str">
         <f t="shared" si="7"/>
-        <v>.Appip</v>
+        <v>.</v>
       </c>
       <c r="AH17" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore.Appip = sqlAppip.String</v>
+        <v>appCacheStore. = sql.String</v>
       </c>
     </row>
     <row r="18" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="B18" s="1"/>
       <c r="C18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Apphost</v>
+        <v/>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="1"/>
-        <v>Apphost    string</v>
+        <v/>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="2"/>
-        <v>Apphost    string</v>
+        <v/>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="3"/>
-        <v>Apphost:    returnRecord.Apphost,</v>
+        <v/>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="4"/>
-        <v>Apphost:    "",</v>
+        <v/>
       </c>
       <c r="M18" t="str">
         <f t="shared" si="5"/>
-        <v>appSessionStore.Apphost = sqlSessionStoreApphost.String</v>
+        <v/>
       </c>
       <c r="W18" t="str">
         <f t="shared" si="6"/>
-        <v>s.Apphost = r.FormValue("Apphost")</v>
+        <v/>
       </c>
       <c r="AE18" t="str">
         <f t="shared" si="7"/>
-        <v>.Apphost</v>
+        <v>.</v>
       </c>
       <c r="AH18" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore.Apphost = sqlApphost.String</v>
+        <v>appCacheStore. = sql.String</v>
       </c>
     </row>
     <row r="19" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="B19" s="1"/>
       <c r="C19" s="2" t="str">
         <f>IF(LEFT(B19)="_",SUBSTITUTE(PROPER(B19),"_","SYS"),PROPER(B19))</f>
-        <v>Issued</v>
+        <v/>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="1"/>
-        <v>Issued    string</v>
+        <v/>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="2"/>
-        <v>Issued    string</v>
+        <v/>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="3"/>
-        <v>Issued:    returnRecord.Issued,</v>
+        <v/>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="4"/>
-        <v>Issued:    "",</v>
+        <v/>
       </c>
       <c r="M19" t="str">
         <f t="shared" si="5"/>
-        <v>appSessionStore.Issued = sqlSessionStoreIssued.String</v>
+        <v/>
       </c>
       <c r="W19" t="str">
         <f t="shared" si="6"/>
-        <v>s.Issued = r.FormValue("Issued")</v>
+        <v/>
       </c>
       <c r="AE19" t="str">
         <f t="shared" si="7"/>
-        <v>.Issued</v>
+        <v>.</v>
       </c>
       <c r="AH19" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore.Issued = sqlIssued.String</v>
+        <v>appCacheStore. = sql.String</v>
       </c>
     </row>
     <row r="20" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="B20" s="1"/>
       <c r="C20" s="2" t="str">
         <f t="shared" ref="C20:C37" si="9">IF(LEFT(B20)="_",SUBSTITUTE(PROPER(B20),"_","SYS"),PROPER(B20))</f>
-        <v>Expiry</v>
+        <v/>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="1"/>
-        <v>Expiry    string</v>
+        <v/>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="2"/>
-        <v>Expiry    string</v>
+        <v/>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="3"/>
-        <v>Expiry:    returnRecord.Expiry,</v>
+        <v/>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="4"/>
-        <v>Expiry:    "",</v>
+        <v/>
       </c>
       <c r="M20" t="str">
         <f t="shared" si="5"/>
-        <v>appSessionStore.Expiry = sqlSessionStoreExpiry.String</v>
+        <v/>
       </c>
       <c r="W20" t="str">
         <f t="shared" si="6"/>
-        <v>s.Expiry = r.FormValue("Expiry")</v>
+        <v/>
       </c>
       <c r="AE20" t="str">
         <f t="shared" si="7"/>
-        <v>.Expiry</v>
+        <v>.</v>
       </c>
       <c r="AH20" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore.Expiry = sqlExpiry.String</v>
+        <v>appCacheStore. = sql.String</v>
       </c>
     </row>
     <row r="21" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="B21" s="1"/>
       <c r="C21" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>Expiryraw</v>
+        <v/>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="1"/>
-        <v>Expiryraw    string</v>
+        <v/>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="2"/>
-        <v>Expiryraw    string</v>
+        <v/>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="3"/>
-        <v>Expiryraw:    returnRecord.Expiryraw,</v>
+        <v/>
       </c>
       <c r="I21" t="str">
         <f t="shared" si="4"/>
-        <v>Expiryraw:    "",</v>
+        <v/>
       </c>
       <c r="M21" t="str">
         <f t="shared" si="5"/>
-        <v>appSessionStore.Expiryraw = sqlSessionStoreExpiryraw.String</v>
+        <v/>
       </c>
       <c r="W21" t="str">
         <f t="shared" si="6"/>
-        <v>s.Expiryraw = r.FormValue("Expiryraw")</v>
+        <v/>
       </c>
       <c r="AE21" t="str">
         <f t="shared" si="7"/>
-        <v>.Expiryraw</v>
+        <v>.</v>
       </c>
       <c r="AH21" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore.Expiryraw = sqlExpiryraw.String</v>
+        <v>appCacheStore. = sql.String</v>
       </c>
     </row>
     <row r="22" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="B22" s="1"/>
       <c r="C22" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>Role</v>
+        <v/>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="1"/>
-        <v>Role    string</v>
+        <v/>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="2"/>
-        <v>Role    string</v>
+        <v/>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="3"/>
-        <v>Role:    returnRecord.Role,</v>
+        <v/>
       </c>
       <c r="I22" t="str">
         <f t="shared" si="4"/>
-        <v>Role:    "",</v>
+        <v/>
       </c>
       <c r="M22" t="str">
         <f t="shared" si="5"/>
-        <v>appSessionStore.Role = sqlSessionStoreRole.String</v>
+        <v/>
       </c>
       <c r="W22" t="str">
         <f t="shared" si="6"/>
-        <v>s.Role = r.FormValue("Role")</v>
+        <v/>
       </c>
       <c r="AE22" t="str">
         <f t="shared" si="7"/>
-        <v>.Role</v>
+        <v>.</v>
       </c>
       <c r="AH22" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore.Role = sqlRole.String</v>
+        <v>appCacheStore. = sql.String</v>
       </c>
     </row>
     <row r="23" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B23" s="1"/>
       <c r="C23" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>Brand</v>
+        <v/>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="1"/>
-        <v>Brand    string</v>
+        <v/>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="2"/>
-        <v>Brand    string</v>
+        <v/>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="3"/>
-        <v>Brand:    returnRecord.Brand,</v>
+        <v/>
       </c>
       <c r="I23" t="str">
         <f t="shared" si="4"/>
-        <v>Brand:    "",</v>
+        <v/>
       </c>
       <c r="M23" t="str">
         <f t="shared" si="5"/>
-        <v>appSessionStore.Brand = sqlSessionStoreBrand.String</v>
+        <v/>
       </c>
       <c r="W23" t="str">
         <f t="shared" si="6"/>
-        <v>s.Brand = r.FormValue("Brand")</v>
+        <v/>
       </c>
       <c r="AE23" t="str">
         <f t="shared" si="7"/>
-        <v>.Brand</v>
+        <v>.</v>
       </c>
       <c r="AH23" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore.Brand = sqlBrand.String</v>
+        <v>appCacheStore. = sql.String</v>
       </c>
     </row>
     <row r="24" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B24" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B24" s="1"/>
       <c r="C24" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SYSCreated</v>
+        <v/>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="1"/>
-        <v>SYSCreated    string</v>
+        <v/>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="2"/>
-        <v>SYSCreated    string</v>
+        <v/>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="3"/>
-        <v>SYSCreated:    returnRecord.SYSCreated,</v>
+        <v/>
       </c>
       <c r="I24" t="str">
         <f t="shared" si="4"/>
-        <v>SYSCreated:    "",</v>
+        <v/>
       </c>
       <c r="M24" t="str">
         <f t="shared" si="5"/>
-        <v>appSessionStore.SYSCreated = sqlSessionStoreSYSCreated.String</v>
+        <v/>
       </c>
       <c r="W24" t="str">
         <f t="shared" si="6"/>
-        <v>s.SYSCreated = r.FormValue("SYSCreated")</v>
+        <v/>
       </c>
       <c r="AE24" t="str">
         <f t="shared" si="7"/>
-        <v>.SYSCreated</v>
+        <v>.</v>
       </c>
       <c r="AH24" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore.SYSCreated = sqlSYSCreated.String</v>
+        <v>appCacheStore. = sql.String</v>
       </c>
     </row>
     <row r="25" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B25" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="B25" s="1"/>
       <c r="C25" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SYSWho</v>
+        <v/>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="1"/>
-        <v>SYSWho    string</v>
+        <v/>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="2"/>
-        <v>SYSWho    string</v>
+        <v/>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="3"/>
-        <v>SYSWho:    returnRecord.SYSWho,</v>
+        <v/>
       </c>
       <c r="I25" t="str">
         <f t="shared" si="4"/>
-        <v>SYSWho:    "",</v>
+        <v/>
       </c>
       <c r="M25" t="str">
         <f t="shared" si="5"/>
-        <v>appSessionStore.SYSWho = sqlSessionStoreSYSWho.String</v>
+        <v/>
       </c>
       <c r="W25" t="str">
         <f t="shared" si="6"/>
-        <v>s.SYSWho = r.FormValue("SYSWho")</v>
+        <v/>
       </c>
       <c r="AE25" t="str">
         <f t="shared" si="7"/>
-        <v>.SYSWho</v>
+        <v>.</v>
       </c>
       <c r="AH25" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore.SYSWho = sqlSYSWho.String</v>
+        <v>appCacheStore. = sql.String</v>
       </c>
     </row>
     <row r="26" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B26" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="B26" s="1"/>
       <c r="C26" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SYSHost</v>
+        <v/>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="1"/>
-        <v>SYSHost    string</v>
+        <v/>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="2"/>
-        <v>SYSHost    string</v>
+        <v/>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="3"/>
-        <v>SYSHost:    returnRecord.SYSHost,</v>
+        <v/>
       </c>
       <c r="I26" t="str">
         <f t="shared" si="4"/>
-        <v>SYSHost:    "",</v>
+        <v/>
       </c>
       <c r="M26" t="str">
         <f t="shared" si="5"/>
-        <v>appSessionStore.SYSHost = sqlSessionStoreSYSHost.String</v>
+        <v/>
       </c>
       <c r="W26" t="str">
         <f t="shared" si="6"/>
-        <v>s.SYSHost = r.FormValue("SYSHost")</v>
+        <v/>
       </c>
       <c r="AE26" t="str">
         <f t="shared" si="7"/>
-        <v>.SYSHost</v>
+        <v>.</v>
       </c>
       <c r="AH26" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore.SYSHost = sqlSYSHost.String</v>
+        <v>appCacheStore. = sql.String</v>
       </c>
     </row>
     <row r="27" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="B27" s="1"/>
       <c r="C27" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>SYSUpdated</v>
+        <v/>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="1"/>
-        <v>SYSUpdated    string</v>
+        <v/>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="2"/>
-        <v>SYSUpdated    string</v>
+        <v/>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="3"/>
-        <v>SYSUpdated:    returnRecord.SYSUpdated,</v>
+        <v/>
       </c>
       <c r="I27" t="str">
         <f t="shared" si="4"/>
-        <v>SYSUpdated:    "",</v>
+        <v/>
       </c>
       <c r="M27" t="str">
         <f t="shared" si="5"/>
-        <v>appSessionStore.SYSUpdated = sqlSessionStoreSYSUpdated.String</v>
+        <v/>
       </c>
       <c r="W27" t="str">
         <f t="shared" si="6"/>
-        <v>s.SYSUpdated = r.FormValue("SYSUpdated")</v>
+        <v/>
       </c>
       <c r="AE27" t="str">
         <f t="shared" si="7"/>
-        <v>.SYSUpdated</v>
+        <v>.</v>
       </c>
       <c r="AH27" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore.SYSUpdated = sqlSYSUpdated.String</v>
+        <v>appCacheStore. = sql.String</v>
       </c>
     </row>
     <row r="28" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B28" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="B28" s="1"/>
       <c r="C28" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>Id</v>
+        <v/>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="1"/>
-        <v>Id    string</v>
+        <v/>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="2"/>
-        <v>Id    string</v>
+        <v/>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="3"/>
-        <v>Id:    returnRecord.Id,</v>
+        <v/>
       </c>
       <c r="I28" t="str">
         <f t="shared" si="4"/>
-        <v>Id:    "",</v>
+        <v/>
       </c>
       <c r="M28" t="str">
         <f t="shared" si="5"/>
-        <v>appSessionStore.Id = sqlSessionStoreId.String</v>
+        <v/>
       </c>
       <c r="W28" t="str">
         <f t="shared" si="6"/>
-        <v>s.Id = r.FormValue("Id")</v>
+        <v/>
       </c>
       <c r="AE28" t="str">
         <f t="shared" si="7"/>
-        <v>.Id</v>
+        <v>.</v>
       </c>
       <c r="AH28" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore.Id = sqlId.String</v>
+        <v>appCacheStore. = sql.String</v>
       </c>
     </row>
     <row r="29" spans="2:34" x14ac:dyDescent="0.2">
@@ -1637,7 +1577,7 @@
       </c>
       <c r="AH29" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore. = sql.String</v>
+        <v>appCacheStore. = sql.String</v>
       </c>
     </row>
     <row r="30" spans="2:34" x14ac:dyDescent="0.2">
@@ -1676,7 +1616,7 @@
       </c>
       <c r="AH30" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore. = sql.String</v>
+        <v>appCacheStore. = sql.String</v>
       </c>
     </row>
     <row r="31" spans="2:34" x14ac:dyDescent="0.2">
@@ -1715,7 +1655,7 @@
       </c>
       <c r="AH31" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore. = sql.String</v>
+        <v>appCacheStore. = sql.String</v>
       </c>
     </row>
     <row r="32" spans="2:34" x14ac:dyDescent="0.2">
@@ -1754,7 +1694,7 @@
       </c>
       <c r="AH32" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore. = sql.String</v>
+        <v>appCacheStore. = sql.String</v>
       </c>
     </row>
     <row r="33" spans="2:34" x14ac:dyDescent="0.2">
@@ -1793,7 +1733,7 @@
       </c>
       <c r="AH33" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore. = sql.String</v>
+        <v>appCacheStore. = sql.String</v>
       </c>
     </row>
     <row r="34" spans="2:34" x14ac:dyDescent="0.2">
@@ -1832,7 +1772,7 @@
       </c>
       <c r="AH34" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore. = sql.String</v>
+        <v>appCacheStore. = sql.String</v>
       </c>
     </row>
     <row r="35" spans="2:34" x14ac:dyDescent="0.2">
@@ -1871,7 +1811,7 @@
       </c>
       <c r="AH35" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore. = sql.String</v>
+        <v>appCacheStore. = sql.String</v>
       </c>
     </row>
     <row r="36" spans="2:34" x14ac:dyDescent="0.2">
@@ -1910,7 +1850,7 @@
       </c>
       <c r="AH36" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore. = sql.String</v>
+        <v>appCacheStore. = sql.String</v>
       </c>
     </row>
     <row r="37" spans="2:34" x14ac:dyDescent="0.2">
@@ -1949,7 +1889,7 @@
       </c>
       <c r="AH37" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore. = sql.String</v>
+        <v>appCacheStore. = sql.String</v>
       </c>
     </row>
     <row r="38" spans="2:34" x14ac:dyDescent="0.2">
@@ -1985,7 +1925,7 @@
       </c>
       <c r="AH38" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore. = sql.String</v>
+        <v>appCacheStore. = sql.String</v>
       </c>
     </row>
     <row r="39" spans="2:34" x14ac:dyDescent="0.2">
@@ -2021,7 +1961,7 @@
       </c>
       <c r="AH39" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore. = sql.String</v>
+        <v>appCacheStore. = sql.String</v>
       </c>
     </row>
     <row r="40" spans="2:34" x14ac:dyDescent="0.2">
@@ -2057,7 +1997,7 @@
       </c>
       <c r="AH40" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore. = sql.String</v>
+        <v>appCacheStore. = sql.String</v>
       </c>
     </row>
     <row r="41" spans="2:34" x14ac:dyDescent="0.2">
@@ -2093,7 +2033,7 @@
       </c>
       <c r="AH41" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore. = sql.String</v>
+        <v>appCacheStore. = sql.String</v>
       </c>
     </row>
     <row r="42" spans="2:34" x14ac:dyDescent="0.2">
@@ -2129,7 +2069,7 @@
       </c>
       <c r="AH42" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore. = sql.String</v>
+        <v>appCacheStore. = sql.String</v>
       </c>
     </row>
     <row r="43" spans="2:34" x14ac:dyDescent="0.2">
@@ -2165,7 +2105,7 @@
       </c>
       <c r="AH43" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore. = sql.String</v>
+        <v>appCacheStore. = sql.String</v>
       </c>
     </row>
     <row r="44" spans="2:34" x14ac:dyDescent="0.2">
@@ -2201,7 +2141,7 @@
       </c>
       <c r="AH44" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore. = sql.String</v>
+        <v>appCacheStore. = sql.String</v>
       </c>
     </row>
     <row r="45" spans="2:34" x14ac:dyDescent="0.2">
@@ -2237,7 +2177,7 @@
       </c>
       <c r="AH45" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore. = sql.String</v>
+        <v>appCacheStore. = sql.String</v>
       </c>
     </row>
     <row r="46" spans="2:34" x14ac:dyDescent="0.2">
@@ -2273,7 +2213,7 @@
       </c>
       <c r="AH46" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore. = sql.String</v>
+        <v>appCacheStore. = sql.String</v>
       </c>
     </row>
     <row r="47" spans="2:34" x14ac:dyDescent="0.2">
@@ -2309,7 +2249,7 @@
       </c>
       <c r="AH47" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore. = sql.String</v>
+        <v>appCacheStore. = sql.String</v>
       </c>
     </row>
     <row r="48" spans="2:34" x14ac:dyDescent="0.2">
@@ -2345,7 +2285,7 @@
       </c>
       <c r="AH48" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore. = sql.String</v>
+        <v>appCacheStore. = sql.String</v>
       </c>
     </row>
     <row r="49" spans="2:34" x14ac:dyDescent="0.2">
@@ -2381,7 +2321,7 @@
       </c>
       <c r="AH49" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore. = sql.String</v>
+        <v>appCacheStore. = sql.String</v>
       </c>
     </row>
     <row r="50" spans="2:34" x14ac:dyDescent="0.2">
@@ -2417,7 +2357,7 @@
       </c>
       <c r="AH50" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore. = sql.String</v>
+        <v>appCacheStore. = sql.String</v>
       </c>
     </row>
     <row r="51" spans="2:34" x14ac:dyDescent="0.2">
@@ -2453,7 +2393,7 @@
       </c>
       <c r="AH51" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore. = sql.String</v>
+        <v>appCacheStore. = sql.String</v>
       </c>
     </row>
     <row r="52" spans="2:34" x14ac:dyDescent="0.2">
@@ -2489,7 +2429,7 @@
       </c>
       <c r="AH52" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore. = sql.String</v>
+        <v>appCacheStore. = sql.String</v>
       </c>
     </row>
     <row r="53" spans="2:34" x14ac:dyDescent="0.2">
@@ -2525,7 +2465,7 @@
       </c>
       <c r="AH53" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore. = sql.String</v>
+        <v>appCacheStore. = sql.String</v>
       </c>
     </row>
     <row r="54" spans="2:34" x14ac:dyDescent="0.2">
@@ -2561,7 +2501,7 @@
       </c>
       <c r="AH54" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore. = sql.String</v>
+        <v>appCacheStore. = sql.String</v>
       </c>
     </row>
     <row r="55" spans="2:34" x14ac:dyDescent="0.2">
@@ -2597,7 +2537,7 @@
       </c>
       <c r="AH55" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore. = sql.String</v>
+        <v>appCacheStore. = sql.String</v>
       </c>
     </row>
     <row r="56" spans="2:34" x14ac:dyDescent="0.2">
@@ -2633,7 +2573,7 @@
       </c>
       <c r="AH56" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore. = sql.String</v>
+        <v>appCacheStore. = sql.String</v>
       </c>
     </row>
     <row r="57" spans="2:34" x14ac:dyDescent="0.2">
@@ -2669,7 +2609,7 @@
       </c>
       <c r="AH57" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore. = sql.String</v>
+        <v>appCacheStore. = sql.String</v>
       </c>
     </row>
     <row r="58" spans="2:34" x14ac:dyDescent="0.2">
@@ -2705,7 +2645,7 @@
       </c>
       <c r="AH58" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore. = sql.String</v>
+        <v>appCacheStore. = sql.String</v>
       </c>
     </row>
     <row r="59" spans="2:34" x14ac:dyDescent="0.2">
@@ -2741,7 +2681,7 @@
       </c>
       <c r="AH59" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore. = sql.String</v>
+        <v>appCacheStore. = sql.String</v>
       </c>
     </row>
     <row r="60" spans="2:34" x14ac:dyDescent="0.2">
@@ -2777,7 +2717,7 @@
       </c>
       <c r="AH60" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore. = sql.String</v>
+        <v>appCacheStore. = sql.String</v>
       </c>
     </row>
     <row r="61" spans="2:34" x14ac:dyDescent="0.2">
@@ -2813,7 +2753,7 @@
       </c>
       <c r="AH61" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore. = sql.String</v>
+        <v>appCacheStore. = sql.String</v>
       </c>
     </row>
     <row r="62" spans="2:34" x14ac:dyDescent="0.2">
@@ -2849,7 +2789,7 @@
       </c>
       <c r="AH62" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore. = sql.String</v>
+        <v>appCacheStore. = sql.String</v>
       </c>
     </row>
     <row r="63" spans="2:34" x14ac:dyDescent="0.2">
@@ -2885,7 +2825,7 @@
       </c>
       <c r="AH63" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore. = sql.String</v>
+        <v>appCacheStore. = sql.String</v>
       </c>
     </row>
     <row r="64" spans="2:34" x14ac:dyDescent="0.2">
@@ -2921,7 +2861,7 @@
       </c>
       <c r="AH64" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore. = sql.String</v>
+        <v>appCacheStore. = sql.String</v>
       </c>
     </row>
     <row r="65" spans="2:34" x14ac:dyDescent="0.2">
@@ -2957,7 +2897,7 @@
       </c>
       <c r="AH65" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore. = sql.String</v>
+        <v>appCacheStore. = sql.String</v>
       </c>
     </row>
     <row r="66" spans="2:34" x14ac:dyDescent="0.2">
@@ -2993,7 +2933,7 @@
       </c>
       <c r="AH66" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore. = sql.String</v>
+        <v>appCacheStore. = sql.String</v>
       </c>
     </row>
     <row r="67" spans="2:34" x14ac:dyDescent="0.2">
@@ -3029,7 +2969,7 @@
       </c>
       <c r="AH67" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore. = sql.String</v>
+        <v>appCacheStore. = sql.String</v>
       </c>
     </row>
     <row r="68" spans="2:34" x14ac:dyDescent="0.2">
@@ -3065,7 +3005,7 @@
       </c>
       <c r="AH68" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore. = sql.String</v>
+        <v>appCacheStore. = sql.String</v>
       </c>
     </row>
     <row r="69" spans="2:34" x14ac:dyDescent="0.2">
@@ -3101,7 +3041,7 @@
       </c>
       <c r="AH69" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore. = sql.String</v>
+        <v>appCacheStore. = sql.String</v>
       </c>
     </row>
     <row r="70" spans="2:34" x14ac:dyDescent="0.2">
@@ -3137,7 +3077,7 @@
       </c>
       <c r="AH70" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore. = sql.String</v>
+        <v>appCacheStore. = sql.String</v>
       </c>
     </row>
     <row r="71" spans="2:34" x14ac:dyDescent="0.2">
@@ -3173,7 +3113,7 @@
       </c>
       <c r="AH71" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore. = sql.String</v>
+        <v>appCacheStore. = sql.String</v>
       </c>
     </row>
     <row r="72" spans="2:34" x14ac:dyDescent="0.2">
@@ -3209,7 +3149,7 @@
       </c>
       <c r="AH72" t="str">
         <f t="shared" si="8"/>
-        <v>appSessionStore. = sql.String</v>
+        <v>appCacheStore. = sql.String</v>
       </c>
     </row>
     <row r="73" spans="2:34" x14ac:dyDescent="0.2">
@@ -3245,7 +3185,7 @@
       </c>
       <c r="AH73" t="str">
         <f t="shared" ref="AH73:AH76" si="18">$J$5&amp;"."&amp;C73&amp;" = sql"&amp;C73&amp;".String"</f>
-        <v>appSessionStore. = sql.String</v>
+        <v>appCacheStore. = sql.String</v>
       </c>
     </row>
     <row r="74" spans="2:34" x14ac:dyDescent="0.2">
@@ -3281,7 +3221,7 @@
       </c>
       <c r="AH74" t="str">
         <f t="shared" si="18"/>
-        <v>appSessionStore. = sql.String</v>
+        <v>appCacheStore. = sql.String</v>
       </c>
     </row>
     <row r="75" spans="2:34" x14ac:dyDescent="0.2">
@@ -3317,7 +3257,7 @@
       </c>
       <c r="AH75" t="str">
         <f t="shared" si="18"/>
-        <v>appSessionStore. = sql.String</v>
+        <v>appCacheStore. = sql.String</v>
       </c>
     </row>
     <row r="76" spans="2:34" x14ac:dyDescent="0.2">
@@ -3353,7 +3293,7 @@
       </c>
       <c r="AH76" t="str">
         <f t="shared" si="18"/>
-        <v>appSessionStore. = sql.String</v>
+        <v>appCacheStore. = sql.String</v>
       </c>
     </row>
   </sheetData>
@@ -3369,7 +3309,7 @@
   <dimension ref="A2:BL19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:W19"/>
+      <selection activeCell="C19" sqref="C19:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3389,7 +3329,7 @@
     <row r="3" spans="1:64" x14ac:dyDescent="0.2">
       <c r="C3" s="2" t="str">
         <f>'GO Struct Bits'!B4&amp;'GO Struct Bits'!B3</f>
-        <v>SessionStore</v>
+        <v>CacheStore</v>
       </c>
     </row>
     <row r="6" spans="1:64" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -3398,67 +3338,67 @@
         <v>0</v>
       </c>
       <c r="C6" s="5" t="str">
-        <v>apptoken</v>
+        <v>id</v>
       </c>
       <c r="D6" s="5" t="str">
-        <v>createdate</v>
+        <v>object</v>
       </c>
       <c r="E6" s="5" t="str">
-        <v>createtime</v>
+        <v>field</v>
       </c>
       <c r="F6" s="5" t="str">
-        <v>uniqueid</v>
+        <v>value</v>
       </c>
       <c r="G6" s="5" t="str">
-        <v>sessiontoken</v>
+        <v>expiry</v>
       </c>
       <c r="H6" s="5" t="str">
-        <v>username</v>
+        <v>_created</v>
       </c>
       <c r="I6" s="5" t="str">
-        <v>password</v>
+        <v>_who</v>
       </c>
       <c r="J6" s="5" t="str">
-        <v>userip</v>
+        <v>_host</v>
       </c>
       <c r="K6" s="5" t="str">
-        <v>userhost</v>
-      </c>
-      <c r="L6" s="5" t="str">
-        <v>appip</v>
-      </c>
-      <c r="M6" s="5" t="str">
-        <v>apphost</v>
-      </c>
-      <c r="N6" s="5" t="str">
-        <v>issued</v>
-      </c>
-      <c r="O6" s="5" t="str">
-        <v>expiry</v>
-      </c>
-      <c r="P6" s="5" t="str">
-        <v>expiryraw</v>
-      </c>
-      <c r="Q6" s="5" t="str">
-        <v>role</v>
-      </c>
-      <c r="R6" s="5" t="str">
-        <v>brand</v>
-      </c>
-      <c r="S6" s="5" t="str">
-        <v>_created</v>
-      </c>
-      <c r="T6" s="5" t="str">
-        <v>_who</v>
-      </c>
-      <c r="U6" s="5" t="str">
-        <v>_host</v>
-      </c>
-      <c r="V6" s="5" t="str">
         <v>_updated</v>
       </c>
-      <c r="W6" s="5" t="str">
-        <v>id</v>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>0</v>
+      </c>
+      <c r="R6" s="5">
+        <v>0</v>
+      </c>
+      <c r="S6" s="5">
+        <v>0</v>
+      </c>
+      <c r="T6" s="5">
+        <v>0</v>
+      </c>
+      <c r="U6" s="5">
+        <v>0</v>
+      </c>
+      <c r="V6" s="5">
+        <v>0</v>
+      </c>
+      <c r="W6" s="5">
+        <v>0</v>
       </c>
       <c r="X6" s="5">
         <v>0</v>
@@ -3539,67 +3479,67 @@
         <v>0</v>
       </c>
       <c r="C7" t="str">
-        <v>Apptoken</v>
+        <v>Id</v>
       </c>
       <c r="D7" t="str">
-        <v>Createdate</v>
+        <v>Object</v>
       </c>
       <c r="E7" t="str">
-        <v>Createtime</v>
+        <v>Field</v>
       </c>
       <c r="F7" t="str">
-        <v>Uniqueid</v>
+        <v>Value</v>
       </c>
       <c r="G7" t="str">
-        <v>Sessiontoken</v>
+        <v>Expiry</v>
       </c>
       <c r="H7" t="str">
-        <v>Username</v>
+        <v>SYSCreated</v>
       </c>
       <c r="I7" t="str">
-        <v>Password</v>
+        <v>SYSWho</v>
       </c>
       <c r="J7" t="str">
-        <v>Userip</v>
+        <v>SYSHost</v>
       </c>
       <c r="K7" t="str">
-        <v>Userhost</v>
+        <v>SYSUpdated</v>
       </c>
       <c r="L7" t="str">
-        <v>Appip</v>
+        <v/>
       </c>
       <c r="M7" t="str">
-        <v>Apphost</v>
+        <v/>
       </c>
       <c r="N7" t="str">
-        <v>Issued</v>
+        <v/>
       </c>
       <c r="O7" t="str">
-        <v>Expiry</v>
+        <v/>
       </c>
       <c r="P7" t="str">
-        <v>Expiryraw</v>
+        <v/>
       </c>
       <c r="Q7" t="str">
-        <v>Role</v>
+        <v/>
       </c>
       <c r="R7" t="str">
-        <v>Brand</v>
+        <v/>
       </c>
       <c r="S7" t="str">
-        <v>SYSCreated</v>
+        <v/>
       </c>
       <c r="T7" t="str">
-        <v>SYSWho</v>
+        <v/>
       </c>
       <c r="U7" t="str">
-        <v>SYSHost</v>
+        <v/>
       </c>
       <c r="V7" t="str">
-        <v>SYSUpdated</v>
+        <v/>
       </c>
       <c r="W7" t="str">
-        <v>Id</v>
+        <v/>
       </c>
       <c r="X7" t="str">
         <v/>
@@ -3683,91 +3623,91 @@
       </c>
       <c r="B8" s="2" t="str">
         <f>"var "&amp;'GO Struct Bits'!$E$1&amp;'GO Struct Bits'!B6&amp;"SQL ="</f>
-        <v>var appSessionStoreSQL =</v>
+        <v>var appCacheStoreSQL =</v>
       </c>
       <c r="C8" t="str">
         <f>IF(C6=0,"",C6&amp;", ")</f>
-        <v xml:space="preserve">apptoken, </v>
+        <v xml:space="preserve">id, </v>
       </c>
       <c r="D8" t="str">
         <f t="shared" ref="D8:BK8" si="0">IF(D6=0,"",D6&amp;", ")</f>
-        <v xml:space="preserve">createdate, </v>
+        <v xml:space="preserve">object, </v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">createtime, </v>
+        <v xml:space="preserve">field, </v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">uniqueid, </v>
+        <v xml:space="preserve">value, </v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">sessiontoken, </v>
+        <v xml:space="preserve">expiry, </v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">username, </v>
+        <v xml:space="preserve">_created, </v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">password, </v>
+        <v xml:space="preserve">_who, </v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">userip, </v>
+        <v xml:space="preserve">_host, </v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">userhost, </v>
+        <v xml:space="preserve">_updated, </v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">appip, </v>
+        <v/>
       </c>
       <c r="M8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">apphost, </v>
+        <v/>
       </c>
       <c r="N8" t="str">
         <f>IF(N6=0,"",N6&amp;", ")</f>
-        <v xml:space="preserve">issued, </v>
+        <v/>
       </c>
       <c r="O8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">expiry, </v>
+        <v/>
       </c>
       <c r="P8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">expiryraw, </v>
+        <v/>
       </c>
       <c r="Q8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">role, </v>
+        <v/>
       </c>
       <c r="R8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">brand, </v>
+        <v/>
       </c>
       <c r="S8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">_created, </v>
+        <v/>
       </c>
       <c r="T8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">_who, </v>
+        <v/>
       </c>
       <c r="U8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">_host, </v>
+        <v/>
       </c>
       <c r="V8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">_updated, </v>
+        <v/>
       </c>
       <c r="W8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">id, </v>
+        <v/>
       </c>
       <c r="X8" t="str">
         <f t="shared" si="0"/>
@@ -3934,87 +3874,87 @@
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="str">
         <f>C8</f>
-        <v xml:space="preserve">apptoken, </v>
+        <v xml:space="preserve">id, </v>
       </c>
       <c r="D10" s="6" t="str">
         <f t="shared" ref="D10:BL10" si="1">IF(D6=0,"","&amp;"&amp;D8)</f>
-        <v xml:space="preserve">&amp;createdate, </v>
+        <v xml:space="preserve">&amp;object, </v>
       </c>
       <c r="E10" s="6" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">&amp;createtime, </v>
+        <v xml:space="preserve">&amp;field, </v>
       </c>
       <c r="F10" s="6" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">&amp;uniqueid, </v>
+        <v xml:space="preserve">&amp;value, </v>
       </c>
       <c r="G10" s="6" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">&amp;sessiontoken, </v>
+        <v xml:space="preserve">&amp;expiry, </v>
       </c>
       <c r="H10" s="6" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">&amp;username, </v>
+        <v xml:space="preserve">&amp;_created, </v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">&amp;password, </v>
+        <v xml:space="preserve">&amp;_who, </v>
       </c>
       <c r="J10" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">&amp;userip, </v>
+        <v xml:space="preserve">&amp;_host, </v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">&amp;userhost, </v>
+        <v xml:space="preserve">&amp;_updated, </v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">&amp;appip, </v>
+        <v/>
       </c>
       <c r="M10" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">&amp;apphost, </v>
+        <v/>
       </c>
       <c r="N10" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">&amp;issued, </v>
+        <v/>
       </c>
       <c r="O10" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">&amp;expiry, </v>
+        <v/>
       </c>
       <c r="P10" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">&amp;expiryraw, </v>
+        <v/>
       </c>
       <c r="Q10" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">&amp;role, </v>
+        <v/>
       </c>
       <c r="R10" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">&amp;brand, </v>
+        <v/>
       </c>
       <c r="S10" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">&amp;_created, </v>
+        <v/>
       </c>
       <c r="T10" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">&amp;_who, </v>
+        <v/>
       </c>
       <c r="U10" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">&amp;_host, </v>
+        <v/>
       </c>
       <c r="V10" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">&amp;_updated, </v>
+        <v/>
       </c>
       <c r="W10" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">&amp;id, </v>
+        <v/>
       </c>
       <c r="X10" t="str">
         <f t="shared" si="1"/>
@@ -4187,87 +4127,87 @@
       </c>
       <c r="C13" t="str">
         <f>IF(C6=0,"","sql"&amp;$C$3&amp;""&amp;C7&amp;",")</f>
-        <v>sqlSessionStoreApptoken,</v>
+        <v>sqlCacheStoreId,</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" ref="D13:AR13" si="2">IF(D6=0,"","sql"&amp;$C$3&amp;""&amp;D7&amp;",")</f>
-        <v>sqlSessionStoreCreatedate,</v>
+        <v>sqlCacheStoreObject,</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="2"/>
-        <v>sqlSessionStoreCreatetime,</v>
+        <v>sqlCacheStoreField,</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="2"/>
-        <v>sqlSessionStoreUniqueid,</v>
+        <v>sqlCacheStoreValue,</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="2"/>
-        <v>sqlSessionStoreSessiontoken,</v>
+        <v>sqlCacheStoreExpiry,</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="2"/>
-        <v>sqlSessionStoreUsername,</v>
+        <v>sqlCacheStoreSYSCreated,</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="2"/>
-        <v>sqlSessionStorePassword,</v>
+        <v>sqlCacheStoreSYSWho,</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" si="2"/>
-        <v>sqlSessionStoreUserip,</v>
+        <v>sqlCacheStoreSYSHost,</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="2"/>
-        <v>sqlSessionStoreUserhost,</v>
+        <v>sqlCacheStoreSYSUpdated,</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="2"/>
-        <v>sqlSessionStoreAppip,</v>
+        <v/>
       </c>
       <c r="M13" t="str">
         <f t="shared" si="2"/>
-        <v>sqlSessionStoreApphost,</v>
+        <v/>
       </c>
       <c r="N13" t="str">
         <f t="shared" si="2"/>
-        <v>sqlSessionStoreIssued,</v>
+        <v/>
       </c>
       <c r="O13" t="str">
         <f t="shared" si="2"/>
-        <v>sqlSessionStoreExpiry,</v>
+        <v/>
       </c>
       <c r="P13" t="str">
         <f t="shared" si="2"/>
-        <v>sqlSessionStoreExpiryraw,</v>
+        <v/>
       </c>
       <c r="Q13" t="str">
         <f t="shared" si="2"/>
-        <v>sqlSessionStoreRole,</v>
+        <v/>
       </c>
       <c r="R13" t="str">
         <f t="shared" si="2"/>
-        <v>sqlSessionStoreBrand,</v>
+        <v/>
       </c>
       <c r="S13" t="str">
         <f t="shared" si="2"/>
-        <v>sqlSessionStoreSYSCreated,</v>
+        <v/>
       </c>
       <c r="T13" t="str">
         <f t="shared" si="2"/>
-        <v>sqlSessionStoreSYSWho,</v>
+        <v/>
       </c>
       <c r="U13" t="str">
         <f t="shared" si="2"/>
-        <v>sqlSessionStoreSYSHost,</v>
+        <v/>
       </c>
       <c r="V13" t="str">
         <f t="shared" si="2"/>
-        <v>sqlSessionStoreSYSUpdated,</v>
+        <v/>
       </c>
       <c r="W13" t="str">
         <f t="shared" si="2"/>
-        <v>sqlSessionStoreId,</v>
+        <v/>
       </c>
       <c r="X13" t="str">
         <f t="shared" si="2"/>
@@ -4404,91 +4344,91 @@
     </row>
     <row r="15" spans="1:64" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C15" t="str">
         <f>IF(C6=0,"","&amp;"&amp;C13)</f>
-        <v>&amp;sqlSessionStoreApptoken,</v>
+        <v>&amp;sqlCacheStoreId,</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" ref="D15:BK15" si="5">IF(D6=0,"","&amp;"&amp;D13)</f>
-        <v>&amp;sqlSessionStoreCreatedate,</v>
+        <v>&amp;sqlCacheStoreObject,</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="5"/>
-        <v>&amp;sqlSessionStoreCreatetime,</v>
+        <v>&amp;sqlCacheStoreField,</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="5"/>
-        <v>&amp;sqlSessionStoreUniqueid,</v>
+        <v>&amp;sqlCacheStoreValue,</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="5"/>
-        <v>&amp;sqlSessionStoreSessiontoken,</v>
+        <v>&amp;sqlCacheStoreExpiry,</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="5"/>
-        <v>&amp;sqlSessionStoreUsername,</v>
+        <v>&amp;sqlCacheStoreSYSCreated,</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="5"/>
-        <v>&amp;sqlSessionStorePassword,</v>
+        <v>&amp;sqlCacheStoreSYSWho,</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" si="5"/>
-        <v>&amp;sqlSessionStoreUserip,</v>
+        <v>&amp;sqlCacheStoreSYSHost,</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="5"/>
-        <v>&amp;sqlSessionStoreUserhost,</v>
+        <v>&amp;sqlCacheStoreSYSUpdated,</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="5"/>
-        <v>&amp;sqlSessionStoreAppip,</v>
+        <v/>
       </c>
       <c r="M15" t="str">
         <f t="shared" si="5"/>
-        <v>&amp;sqlSessionStoreApphost,</v>
+        <v/>
       </c>
       <c r="N15" t="str">
         <f t="shared" si="5"/>
-        <v>&amp;sqlSessionStoreIssued,</v>
+        <v/>
       </c>
       <c r="O15" t="str">
         <f t="shared" si="5"/>
-        <v>&amp;sqlSessionStoreExpiry,</v>
+        <v/>
       </c>
       <c r="P15" t="str">
         <f t="shared" si="5"/>
-        <v>&amp;sqlSessionStoreExpiryraw,</v>
+        <v/>
       </c>
       <c r="Q15" t="str">
         <f t="shared" si="5"/>
-        <v>&amp;sqlSessionStoreRole,</v>
+        <v/>
       </c>
       <c r="R15" t="str">
         <f t="shared" si="5"/>
-        <v>&amp;sqlSessionStoreBrand,</v>
+        <v/>
       </c>
       <c r="S15" t="str">
         <f t="shared" si="5"/>
-        <v>&amp;sqlSessionStoreSYSCreated,</v>
+        <v/>
       </c>
       <c r="T15" t="str">
         <f t="shared" si="5"/>
-        <v>&amp;sqlSessionStoreSYSWho,</v>
+        <v/>
       </c>
       <c r="U15" t="str">
         <f t="shared" si="5"/>
-        <v>&amp;sqlSessionStoreSYSHost,</v>
+        <v/>
       </c>
       <c r="V15" t="str">
         <f t="shared" si="5"/>
-        <v>&amp;sqlSessionStoreSYSUpdated,</v>
+        <v/>
       </c>
       <c r="W15" t="str">
         <f t="shared" si="5"/>
-        <v>&amp;sqlSessionStoreId,</v>
+        <v/>
       </c>
       <c r="X15" t="str">
         <f t="shared" si="5"/>
@@ -4674,19 +4614,19 @@
       </c>
       <c r="H18" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>SYS</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>SYS</v>
       </c>
       <c r="J18" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>SYS</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>SYS</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" si="6"/>
@@ -4718,19 +4658,19 @@
       </c>
       <c r="S18" t="str">
         <f t="shared" si="6"/>
-        <v>SYS</v>
+        <v/>
       </c>
       <c r="T18" t="str">
         <f t="shared" si="6"/>
-        <v>SYS</v>
+        <v/>
       </c>
       <c r="U18" t="str">
         <f t="shared" si="6"/>
-        <v>SYS</v>
+        <v/>
       </c>
       <c r="V18" t="str">
         <f t="shared" si="6"/>
-        <v>SYS</v>
+        <v/>
       </c>
       <c r="W18" t="str">
         <f t="shared" si="6"/>
@@ -4819,87 +4759,87 @@
       </c>
       <c r="C19" t="str">
         <f>"r."&amp;C18&amp;SUBSTITUTE(PROPER(C8),"_","")</f>
-        <v xml:space="preserve">r.Apptoken, </v>
+        <v xml:space="preserve">r.Id, </v>
       </c>
       <c r="D19" t="str">
         <f t="shared" ref="D19:AP19" si="8">"r."&amp;D18&amp;SUBSTITUTE(PROPER(D8),"_","")</f>
-        <v xml:space="preserve">r.Createdate, </v>
+        <v xml:space="preserve">r.Object, </v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">r.Createtime, </v>
+        <v xml:space="preserve">r.Field, </v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">r.Uniqueid, </v>
+        <v xml:space="preserve">r.Value, </v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">r.Sessiontoken, </v>
+        <v xml:space="preserve">r.Expiry, </v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">r.Username, </v>
+        <v xml:space="preserve">r.SYSCreated, </v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">r.Password, </v>
+        <v xml:space="preserve">r.SYSWho, </v>
       </c>
       <c r="J19" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">r.Userip, </v>
+        <v xml:space="preserve">r.SYSHost, </v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">r.Userhost, </v>
+        <v xml:space="preserve">r.SYSUpdated, </v>
       </c>
       <c r="L19" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">r.Appip, </v>
+        <v>r.</v>
       </c>
       <c r="M19" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">r.Apphost, </v>
+        <v>r.</v>
       </c>
       <c r="N19" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">r.Issued, </v>
+        <v>r.</v>
       </c>
       <c r="O19" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">r.Expiry, </v>
+        <v>r.</v>
       </c>
       <c r="P19" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">r.Expiryraw, </v>
+        <v>r.</v>
       </c>
       <c r="Q19" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">r.Role, </v>
+        <v>r.</v>
       </c>
       <c r="R19" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">r.Brand, </v>
+        <v>r.</v>
       </c>
       <c r="S19" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">r.SYSCreated, </v>
+        <v>r.</v>
       </c>
       <c r="T19" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">r.SYSWho, </v>
+        <v>r.</v>
       </c>
       <c r="U19" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">r.SYSHost, </v>
+        <v>r.</v>
       </c>
       <c r="V19" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">r.SYSUpdated, </v>
+        <v>r.</v>
       </c>
       <c r="W19" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">r.Id, </v>
+        <v>r.</v>
       </c>
       <c r="X19" t="str">
         <f t="shared" si="8"/>
